--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22DEBDD-E5D0-434F-80AD-7F71135B0394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C198215-471A-1D43-B269-4FCD81C903F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="900" yWindow="2200" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1244"/>
+  <dimension ref="A1:O1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1233" workbookViewId="0">
-      <selection activeCell="O1242" sqref="O1242"/>
+    <sheetView tabSelected="1" topLeftCell="A1227" workbookViewId="0">
+      <selection activeCell="D1243" sqref="D1243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1244" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1245" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1244" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1245" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1244" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1245" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25134,6 +25134,18 @@
       <c r="A1243" s="1">
         <v>43977</v>
       </c>
+      <c r="B1243">
+        <v>10.7</v>
+      </c>
+      <c r="C1243">
+        <v>16</v>
+      </c>
+      <c r="D1243">
+        <v>21.3</v>
+      </c>
+      <c r="E1243">
+        <v>20209.041669999999</v>
+      </c>
       <c r="F1243">
         <v>14</v>
       </c>
@@ -25164,6 +25176,9 @@
       <c r="N1243">
         <v>21</v>
       </c>
+      <c r="O1243">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="1244" spans="1:15">
       <c r="A1244" s="1">
@@ -25198,6 +25213,44 @@
       </c>
       <c r="N1244" s="3">
         <v>22</v>
+      </c>
+      <c r="O1244" s="3">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:15">
+      <c r="A1245" s="1">
+        <v>43979</v>
+      </c>
+      <c r="F1245">
+        <v>10</v>
+      </c>
+      <c r="G1245">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H1245">
+        <v>22</v>
+      </c>
+      <c r="I1245">
+        <v>11</v>
+      </c>
+      <c r="J1245">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K1245">
+        <v>25</v>
+      </c>
+      <c r="L1245">
+        <v>12</v>
+      </c>
+      <c r="M1245" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N1245" s="3">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C198215-471A-1D43-B269-4FCD81C903F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640D14C-40D6-B54B-9570-9C99389DEACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2200" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1245"/>
+  <dimension ref="A1:O1246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1227" workbookViewId="0">
-      <selection activeCell="D1243" sqref="D1243"/>
+    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
+      <selection activeCell="K1248" sqref="K1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1245" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1246" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1245" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1246" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1245" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1246" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25184,6 +25184,18 @@
       <c r="A1244" s="1">
         <v>43978</v>
       </c>
+      <c r="B1244">
+        <v>8.9</v>
+      </c>
+      <c r="C1244">
+        <v>15.9</v>
+      </c>
+      <c r="D1244">
+        <v>22.8</v>
+      </c>
+      <c r="E1244">
+        <v>20342.458330000001</v>
+      </c>
       <c r="F1244">
         <v>11</v>
       </c>
@@ -25250,6 +25262,38 @@
         <v>18</v>
       </c>
       <c r="N1245" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:15">
+      <c r="F1246">
+        <v>10</v>
+      </c>
+      <c r="G1246">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H1246">
+        <v>22</v>
+      </c>
+      <c r="I1246">
+        <v>9</v>
+      </c>
+      <c r="J1246">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="K1246">
+        <v>25</v>
+      </c>
+      <c r="L1246">
+        <v>8</v>
+      </c>
+      <c r="M1246" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="N1246" s="3">
         <v>24</v>
       </c>
     </row>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640D14C-40D6-B54B-9570-9C99389DEACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D795189-1919-A24A-900B-7EFEC1F97B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="32800" yWindow="1820" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1246"/>
+  <dimension ref="A1:O1247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
-      <selection activeCell="K1248" sqref="K1248"/>
+    <sheetView tabSelected="1" topLeftCell="A1216" workbookViewId="0">
+      <selection activeCell="E1246" sqref="E1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1246" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1247" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1246" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1247" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1246" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1247" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25234,6 +25234,18 @@
       <c r="A1245" s="1">
         <v>43979</v>
       </c>
+      <c r="B1245">
+        <v>10.4</v>
+      </c>
+      <c r="C1245">
+        <v>17</v>
+      </c>
+      <c r="D1245">
+        <v>23.6</v>
+      </c>
+      <c r="E1245">
+        <v>19628.5625</v>
+      </c>
       <c r="F1245">
         <v>10</v>
       </c>
@@ -25264,8 +25276,14 @@
       <c r="N1245" s="3">
         <v>24</v>
       </c>
+      <c r="O1245" s="3">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="1246" spans="1:15">
+      <c r="A1246" s="1">
+        <v>43980</v>
+      </c>
       <c r="F1246">
         <v>10</v>
       </c>
@@ -25295,6 +25313,41 @@
       </c>
       <c r="N1246" s="3">
         <v>24</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:15">
+      <c r="A1247" s="1">
+        <v>43981</v>
+      </c>
+      <c r="F1247">
+        <v>12</v>
+      </c>
+      <c r="G1247">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H1247">
+        <v>24</v>
+      </c>
+      <c r="I1247">
+        <v>12</v>
+      </c>
+      <c r="J1247">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="K1247">
+        <v>26</v>
+      </c>
+      <c r="L1247">
+        <v>7</v>
+      </c>
+      <c r="M1247" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N1247" s="3">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D795189-1919-A24A-900B-7EFEC1F97B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F5E04-013F-BF43-A13A-7D1EE4600043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32800" yWindow="1820" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,11 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1247"/>
+  <dimension ref="A1:O1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1216" workbookViewId="0">
-      <selection activeCell="E1246" sqref="E1246"/>
+    <sheetView tabSelected="1" topLeftCell="E1213" workbookViewId="0">
+      <selection activeCell="O1246" sqref="O1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1247" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1248" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1247" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1248" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1247" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1248" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25284,6 +25284,18 @@
       <c r="A1246" s="1">
         <v>43980</v>
       </c>
+      <c r="B1246">
+        <v>10.1</v>
+      </c>
+      <c r="C1246">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D1246">
+        <v>24.1</v>
+      </c>
+      <c r="E1246">
+        <v>22925.3125</v>
+      </c>
       <c r="F1246">
         <v>10</v>
       </c>
@@ -25348,6 +25360,38 @@
       </c>
       <c r="N1247" s="3">
         <v>21</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:15">
+      <c r="F1248">
+        <v>12</v>
+      </c>
+      <c r="G1248">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H1248">
+        <v>24</v>
+      </c>
+      <c r="I1248">
+        <v>11</v>
+      </c>
+      <c r="J1248">
+        <f t="shared" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="K1248">
+        <v>26</v>
+      </c>
+      <c r="L1248">
+        <v>8</v>
+      </c>
+      <c r="M1248" s="3">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="N1248" s="3">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F5E04-013F-BF43-A13A-7D1EE4600043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DE1BD-4A57-9747-8120-2A4E2F04E52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="32620" yWindow="2040" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,11 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1248"/>
+  <dimension ref="A1:O1249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1213" workbookViewId="0">
-      <selection activeCell="O1246" sqref="O1246"/>
+    <sheetView tabSelected="1" topLeftCell="C1214" workbookViewId="0">
+      <selection activeCell="N1251" sqref="N1251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1248" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1249" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1248" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1249" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1248" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1249" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25326,11 +25326,26 @@
       <c r="N1246" s="3">
         <v>24</v>
       </c>
+      <c r="O1246" s="3">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="1247" spans="1:15">
       <c r="A1247" s="1">
         <v>43981</v>
       </c>
+      <c r="B1247">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C1247">
+        <v>16.5</v>
+      </c>
+      <c r="D1247">
+        <v>24</v>
+      </c>
+      <c r="E1247">
+        <v>17248.791669999999</v>
+      </c>
       <c r="F1247">
         <v>12</v>
       </c>
@@ -25392,6 +25407,38 @@
       </c>
       <c r="N1248" s="3">
         <v>23</v>
+      </c>
+    </row>
+    <row r="1249" spans="6:14">
+      <c r="F1249">
+        <v>12</v>
+      </c>
+      <c r="G1249">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="H1249">
+        <v>25</v>
+      </c>
+      <c r="I1249">
+        <v>12</v>
+      </c>
+      <c r="J1249">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="K1249">
+        <v>26</v>
+      </c>
+      <c r="L1249">
+        <v>8</v>
+      </c>
+      <c r="M1249" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="N1249" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DE1BD-4A57-9747-8120-2A4E2F04E52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B31006-D7C6-0B49-B015-5AA02A92AB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="2040" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,11 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1249"/>
+  <dimension ref="A1:O1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1214" workbookViewId="0">
-      <selection activeCell="N1251" sqref="N1251"/>
+    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
+      <selection activeCell="A1249" sqref="A1249:A1252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1249" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1250" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1249" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1250" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1249" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1250" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25378,6 +25378,21 @@
       </c>
     </row>
     <row r="1248" spans="1:15">
+      <c r="A1248" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B1248">
+        <v>10</v>
+      </c>
+      <c r="C1248">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D1248">
+        <v>24.8</v>
+      </c>
+      <c r="E1248">
+        <v>16899.708330000001</v>
+      </c>
       <c r="F1248">
         <v>12</v>
       </c>
@@ -25409,7 +25424,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1249" spans="6:14">
+    <row r="1249" spans="1:14">
+      <c r="A1249" s="1">
+        <v>43983</v>
+      </c>
       <c r="F1249">
         <v>12</v>
       </c>
@@ -25439,6 +25457,51 @@
       </c>
       <c r="N1249" s="3">
         <v>22</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:14">
+      <c r="A1250" s="1">
+        <v>43984</v>
+      </c>
+      <c r="F1250">
+        <v>14</v>
+      </c>
+      <c r="G1250">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H1250">
+        <v>26</v>
+      </c>
+      <c r="I1250">
+        <v>14</v>
+      </c>
+      <c r="J1250">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K1250">
+        <v>26</v>
+      </c>
+      <c r="L1250">
+        <v>12</v>
+      </c>
+      <c r="M1250" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N1250" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:14">
+      <c r="A1251" s="1">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:14">
+      <c r="A1252" s="1">
+        <v>43986</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B31006-D7C6-0B49-B015-5AA02A92AB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2CE497-8834-9547-AB6F-E00EECD9F0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="31280" yWindow="1160" windowWidth="35920" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
   <dimension ref="A1:O1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
-      <selection activeCell="A1249" sqref="A1249:A1252"/>
+    <sheetView tabSelected="1" topLeftCell="A1228" workbookViewId="0">
+      <selection activeCell="D1250" sqref="D1250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1250" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1252" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1250" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1252" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1250" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1252" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25327,7 +25327,7 @@
         <v>24</v>
       </c>
       <c r="O1246" s="3">
-        <v>66.7</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="1247" spans="1:15">
@@ -25376,6 +25376,9 @@
       <c r="N1247" s="3">
         <v>21</v>
       </c>
+      <c r="O1247" s="3">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="1248" spans="1:15">
       <c r="A1248" s="1">
@@ -25423,11 +25426,26 @@
       <c r="N1248" s="3">
         <v>23</v>
       </c>
+      <c r="O1248" s="3">
+        <v>66.67</v>
+      </c>
     </row>
     <row r="1249" spans="1:14">
       <c r="A1249" s="1">
         <v>43983</v>
       </c>
+      <c r="B1249">
+        <v>9</v>
+      </c>
+      <c r="C1249">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D1249">
+        <v>23.9</v>
+      </c>
+      <c r="E1249">
+        <v>19938.916666000001</v>
+      </c>
       <c r="F1249">
         <v>12</v>
       </c>
@@ -25463,6 +25481,15 @@
       <c r="A1250" s="1">
         <v>43984</v>
       </c>
+      <c r="B1250">
+        <v>9.6</v>
+      </c>
+      <c r="C1250">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1250">
+        <v>20287.291669999999</v>
+      </c>
       <c r="F1250">
         <v>14</v>
       </c>
@@ -25498,10 +25525,70 @@
       <c r="A1251" s="1">
         <v>43985</v>
       </c>
+      <c r="F1251">
+        <v>11</v>
+      </c>
+      <c r="G1251">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="H1251">
+        <v>18</v>
+      </c>
+      <c r="I1251">
+        <v>10</v>
+      </c>
+      <c r="J1251">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="K1251">
+        <v>17</v>
+      </c>
+      <c r="L1251">
+        <v>8</v>
+      </c>
+      <c r="M1251" s="3">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+      <c r="N1251" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="1252" spans="1:14">
       <c r="A1252" s="1">
         <v>43986</v>
+      </c>
+      <c r="F1252">
+        <v>10</v>
+      </c>
+      <c r="G1252">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="H1252">
+        <v>17</v>
+      </c>
+      <c r="I1252">
+        <v>11</v>
+      </c>
+      <c r="J1252">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K1252">
+        <v>17</v>
+      </c>
+      <c r="L1252">
+        <v>8</v>
+      </c>
+      <c r="M1252" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N1252" s="3">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm4518/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2CE497-8834-9547-AB6F-E00EECD9F0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDD7FB-5989-BE4C-ABCB-1DCD91CD38EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31280" yWindow="1160" windowWidth="35920" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
@@ -197,11 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1252"/>
+  <dimension ref="A1:O1253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1228" workbookViewId="0">
-      <selection activeCell="D1250" sqref="D1250"/>
+      <selection activeCell="M1255" sqref="M1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1252" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1253" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1252" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1253" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1252" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1253" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25430,7 +25430,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="1249" spans="1:14">
+    <row r="1249" spans="1:15">
       <c r="A1249" s="1">
         <v>43983</v>
       </c>
@@ -25476,8 +25476,11 @@
       <c r="N1249" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="1250" spans="1:14">
+      <c r="O1249" s="3">
+        <v>64.81</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:15">
       <c r="A1250" s="1">
         <v>43984</v>
       </c>
@@ -25485,7 +25488,10 @@
         <v>9.6</v>
       </c>
       <c r="C1250">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D1250">
+        <v>24.6</v>
       </c>
       <c r="E1250">
         <v>20287.291669999999</v>
@@ -25520,10 +25526,25 @@
       <c r="N1250" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="1251" spans="1:14">
+      <c r="O1250" s="3">
+        <v>64.81</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:15">
       <c r="A1251" s="1">
         <v>43985</v>
+      </c>
+      <c r="B1251">
+        <v>12.6</v>
+      </c>
+      <c r="C1251">
+        <v>13.7</v>
+      </c>
+      <c r="D1251">
+        <v>14.7</v>
+      </c>
+      <c r="E1251">
+        <v>21747.458330000001</v>
       </c>
       <c r="F1251">
         <v>11</v>
@@ -25555,8 +25576,11 @@
       <c r="N1251" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="1252" spans="1:14">
+      <c r="O1251" s="3">
+        <v>64.81</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:15">
       <c r="A1252" s="1">
         <v>43986</v>
       </c>
@@ -25588,6 +25612,38 @@
         <v>11</v>
       </c>
       <c r="N1252" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:15">
+      <c r="F1253">
+        <v>10</v>
+      </c>
+      <c r="G1253">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H1253">
+        <v>18</v>
+      </c>
+      <c r="I1253">
+        <v>10</v>
+      </c>
+      <c r="J1253">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="K1253">
+        <v>17</v>
+      </c>
+      <c r="L1253">
+        <v>6</v>
+      </c>
+      <c r="M1253" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N1253" s="3">
         <v>14</v>
       </c>
     </row>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/teaching/IC Business school/dataset/forecasting_competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBDCD82-67F8-6C45-B180-3BAF09244245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C8018-2CDC-7E44-B3E8-F153F3CE5141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="480" windowWidth="20860" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="20860" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
-  <dimension ref="A1:O1255"/>
+  <dimension ref="A1:O1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1230" workbookViewId="0">
-      <selection activeCell="A1253" sqref="A1253"/>
+    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
+      <selection activeCell="C1255" sqref="C1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1254" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1255" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1254" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1255" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1254" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1255" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25634,6 +25634,18 @@
       <c r="A1253" s="1">
         <v>43987</v>
       </c>
+      <c r="B1253">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C1253">
+        <v>11.6</v>
+      </c>
+      <c r="D1253">
+        <v>15.1</v>
+      </c>
+      <c r="E1253">
+        <v>19936.895833333299</v>
+      </c>
       <c r="F1253">
         <v>10</v>
       </c>
@@ -25664,6 +25676,9 @@
       <c r="N1253" s="3">
         <v>14</v>
       </c>
+      <c r="O1253" s="3">
+        <v>64.81</v>
+      </c>
     </row>
     <row r="1254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1254" s="1">
@@ -25701,7 +25716,49 @@
       </c>
     </row>
     <row r="1255" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1255" s="1"/>
+      <c r="A1255" s="1">
+        <v>43989</v>
+      </c>
+      <c r="F1255">
+        <v>10</v>
+      </c>
+      <c r="G1255">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="H1255">
+        <v>19</v>
+      </c>
+      <c r="I1255">
+        <v>9</v>
+      </c>
+      <c r="J1255">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K1255">
+        <v>19</v>
+      </c>
+      <c r="L1255">
+        <v>6</v>
+      </c>
+      <c r="M1255" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N1255" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1">
+        <v>43991</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/teaching/IC Business school/dataset/forecasting_competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8016E54-33BA-184E-81C8-0470AEE4CE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38523510-EFFD-B742-A703-CFBB2D8E01AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="460" windowWidth="15400" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="3320" yWindow="460" windowWidth="15400" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
   <dimension ref="A1:O1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
-      <selection activeCell="E1254" sqref="E1254"/>
+    <sheetView tabSelected="1" topLeftCell="L1238" workbookViewId="0">
+      <selection activeCell="O1258" sqref="O1258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1259" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1260" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1259" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1260" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1259" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1260" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25827,7 +25827,7 @@
         <v>14</v>
       </c>
       <c r="O1256" s="3">
-        <v>64.81</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="1257" spans="1:15" x14ac:dyDescent="0.2">
@@ -25876,11 +25876,26 @@
       <c r="N1257" s="3">
         <v>18</v>
       </c>
+      <c r="O1257" s="3">
+        <v>70.37</v>
+      </c>
     </row>
     <row r="1258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1258" s="1">
         <v>43992</v>
       </c>
+      <c r="B1258">
+        <v>10.4</v>
+      </c>
+      <c r="C1258">
+        <v>12.9</v>
+      </c>
+      <c r="D1258">
+        <v>15.3</v>
+      </c>
+      <c r="E1258">
+        <v>23484.020833333299</v>
+      </c>
       <c r="F1258">
         <v>9</v>
       </c>
@@ -25911,6 +25926,9 @@
       <c r="N1258" s="3">
         <v>14</v>
       </c>
+      <c r="O1258" s="3">
+        <v>70.37</v>
+      </c>
     </row>
     <row r="1259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1259" s="1">
@@ -25948,13 +25966,49 @@
       </c>
     </row>
     <row r="1260" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1260" s="1"/>
+      <c r="A1260" s="1">
+        <v>43994</v>
+      </c>
+      <c r="F1260">
+        <v>14</v>
+      </c>
+      <c r="G1260">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H1260">
+        <v>22</v>
+      </c>
+      <c r="I1260">
+        <v>13</v>
+      </c>
+      <c r="J1260">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="K1260">
+        <v>22</v>
+      </c>
+      <c r="L1260">
+        <v>12</v>
+      </c>
+      <c r="M1260" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N1260" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="1261" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1261" s="1"/>
+      <c r="A1261" s="1">
+        <v>43995</v>
+      </c>
     </row>
     <row r="1262" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1262" s="1"/>
+      <c r="A1262" s="1">
+        <v>43996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/load_weather_dataset.xlsx
+++ b/load_weather_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/teaching/IC Business school/dataset/forecasting_competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38523510-EFFD-B742-A703-CFBB2D8E01AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D1DD7-BC3A-FF4D-9EAD-8881AA8EA389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="460" windowWidth="15400" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
+    <workbookView xWindow="2700" yWindow="460" windowWidth="15400" windowHeight="16260" xr2:uid="{496621E2-8A71-F643-844E-14130D154B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,11 +197,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_mean_est_2020" connectionId="2" xr16:uid="{C140D593-D5A7-7D45-B6D6-82F13BA6B47F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cet_max_est_2020" connectionId="1" xr16:uid="{0DC02D2A-7AC7-5C49-81DD-90A6111BCA50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864A51DE-7844-4F40-903F-C6491FCA3C0D}">
   <dimension ref="A1:O1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1238" workbookViewId="0">
-      <selection activeCell="O1258" sqref="O1258"/>
+    <sheetView tabSelected="1" topLeftCell="M1240" workbookViewId="0">
+      <selection activeCell="P1260" sqref="P1260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23250,7 +23250,7 @@
         <v>6</v>
       </c>
       <c r="G1205">
-        <f t="shared" ref="G1205:G1260" si="3">(F1205+H1205)/2</f>
+        <f t="shared" ref="G1205:G1261" si="3">(F1205+H1205)/2</f>
         <v>11</v>
       </c>
       <c r="H1205">
@@ -23260,7 +23260,7 @@
         <v>8</v>
       </c>
       <c r="J1205">
-        <f t="shared" ref="J1205:J1260" si="4">(I1205+K1205)/2</f>
+        <f t="shared" ref="J1205:J1261" si="4">(I1205+K1205)/2</f>
         <v>11</v>
       </c>
       <c r="K1205">
@@ -23270,7 +23270,7 @@
         <v>4</v>
       </c>
       <c r="M1205" s="3">
-        <f t="shared" ref="M1205:M1260" si="5">(L1205+N1205)/2</f>
+        <f t="shared" ref="M1205:M1261" si="5">(L1205+N1205)/2</f>
         <v>8.5</v>
       </c>
       <c r="N1205">
@@ -25934,6 +25934,18 @@
       <c r="A1259" s="1">
         <v>43993</v>
       </c>
+      <c r="B1259">
+        <v>10.4</v>
+      </c>
+      <c r="C1259">
+        <v>13.7</v>
+      </c>
+      <c r="D1259">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1259">
+        <v>21509.041666666599</v>
+      </c>
       <c r="F1259">
         <v>13</v>
       </c>
@@ -25964,6 +25976,9 @@
       <c r="N1259" s="3">
         <v>15</v>
       </c>
+      <c r="O1259" s="3">
+        <v>70.37</v>
+      </c>
     </row>
     <row r="1260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1260" s="1">
@@ -25999,10 +26014,43 @@
       <c r="N1260" s="3">
         <v>16</v>
       </c>
+      <c r="O1260" s="3">
+        <v>70.37</v>
+      </c>
     </row>
     <row r="1261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1261" s="1">
         <v>43995</v>
+      </c>
+      <c r="F1261">
+        <v>13</v>
+      </c>
+      <c r="G1261">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H1261">
+        <v>23</v>
+      </c>
+      <c r="I1261">
+        <v>12</v>
+      </c>
+      <c r="J1261">
+        <f t="shared" si="4"/>
+        <v>15.5</v>
+      </c>
+      <c r="K1261">
+        <v>19</v>
+      </c>
+      <c r="L1261">
+        <v>12</v>
+      </c>
+      <c r="M1261" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N1261" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="1262" spans="1:15" x14ac:dyDescent="0.2">
